--- a/pages/thresholds_sectors.xlsx
+++ b/pages/thresholds_sectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheifinger\Documents\GitHub\INCLISA\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei\OneDrive\Dokumente\GitHub\INCLISA\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB37320-A973-4F94-B8B8-3C415016AF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77CA0C-8037-4A0D-B664-A37A472F81AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="557">
   <si>
     <t>Sector</t>
   </si>
@@ -1949,6 +1949,9 @@
       <t xml:space="preserve">
 who state that 10m² should be added for each additional person from three household members upwards.</t>
     </r>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2100,7 +2103,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4568,23 +4570,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:L10"/>
+  <dimension ref="A4:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4600,9 +4602,9 @@
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4619,8 +4621,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>552</v>
       </c>
       <c r="B6">
@@ -4636,7 +4638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="288.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="252.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4655,8 +4657,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>553</v>
       </c>
       <c r="B8">
@@ -4672,7 +4674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="144.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -4690,8 +4692,29 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11">
+        <f>B6/B8</f>
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:E11" si="0">C6/C8</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,19 +4730,19 @@
       <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="25" max="25" width="20.109375" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.109375" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -4730,7 +4753,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="I2" t="s">
         <v>42</v>
       </c>
@@ -4750,7 +4773,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4785,7 +4808,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4859,7 +4882,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4934,7 +4957,7 @@
         <v>251244.94234199199</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5014,7 +5037,7 @@
         <v>231628.599037037</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -5094,7 +5117,7 @@
         <v>211843.47511710401</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -5159,7 +5182,7 @@
         <v>222587.28270736701</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -5238,7 +5261,7 @@
         <v>8824.45272999999</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -5294,7 +5317,7 @@
         <v>9590.5328279999994</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -5385,7 +5408,7 @@
         <v>10363.624535999999</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -5481,7 +5504,7 @@
         <v>10127.184380000001</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -5541,7 +5564,7 @@
         <v>33155.243239260184</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -5604,7 +5627,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5671,7 +5694,7 @@
         <v>28.471447468674047</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5738,7 +5761,7 @@
         <v>24.151796692753784</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -5805,7 +5828,7 @@
         <v>20.441060401332166</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5872,7 +5895,7 @@
         <v>21.979187339271785</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -5932,7 +5955,7 @@
         <v>5591.3737781881409</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -5992,7 +6015,7 @@
         <v>13805.777541084581</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -6052,7 +6075,7 @@
         <v>19239.553142745815</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -6112,7 +6135,7 @@
         <v>48988.234703789742</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -6172,7 +6195,7 @@
         <v>7703.1180410435236</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -6232,7 +6255,7 @@
         <v>3186.4862944155761</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -6292,7 +6315,7 @@
         <v>76117.804743872664</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -6352,7 +6375,7 @@
         <v>10547.051505250716</v>
       </c>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -6412,7 +6435,7 @@
         <v>7679.9331944980249</v>
       </c>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -6472,7 +6495,7 @@
         <v>14587.481736905855</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -6532,7 +6555,7 @@
         <v>13545.218171150938</v>
       </c>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -6592,7 +6615,7 @@
         <v>14109.763969044454</v>
       </c>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -6652,7 +6675,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
       <c r="S32" t="s">
         <v>96</v>
       </c>
@@ -6703,7 +6726,7 @@
         <v>61603.550803618637</v>
       </c>
     </row>
-    <row r="33" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <f>AVERAGE(D4:D31)</f>
         <v>45.504642857142855</v>
@@ -6758,7 +6781,7 @@
         <v>22479.582939657375</v>
       </c>
     </row>
-    <row r="34" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S34" t="s">
         <v>100</v>
       </c>
@@ -6809,7 +6832,7 @@
         <v>2093.7336472986876</v>
       </c>
     </row>
-    <row r="35" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S35" t="s">
         <v>102</v>
       </c>
@@ -6860,7 +6883,7 @@
         <v>711.35526342316905</v>
       </c>
     </row>
-    <row r="36" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S36" t="s">
         <v>104</v>
       </c>
@@ -6911,7 +6934,7 @@
         <v>6228.4286108944743</v>
       </c>
     </row>
-    <row r="37" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S37" t="s">
         <v>106</v>
       </c>
@@ -6962,7 +6985,7 @@
         <v>4276.1845389917808</v>
       </c>
     </row>
-    <row r="38" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S38" t="s">
         <v>108</v>
       </c>
@@ -7013,7 +7036,7 @@
         <v>3665.5105811133776</v>
       </c>
     </row>
-    <row r="39" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S39" t="s">
         <v>110</v>
       </c>
@@ -7064,7 +7087,7 @@
         <v>46181.757554575641</v>
       </c>
     </row>
-    <row r="40" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S40" t="s">
         <v>112</v>
       </c>
@@ -7115,7 +7138,7 @@
         <v>67530.693800049441</v>
       </c>
     </row>
-    <row r="41" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S41" t="s">
         <v>114</v>
       </c>
@@ -7166,7 +7189,7 @@
         <v>847.76501242058339</v>
       </c>
     </row>
-    <row r="42" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S42" t="s">
         <v>116</v>
       </c>
@@ -7217,7 +7240,7 @@
         <v>1489.186712179657</v>
       </c>
     </row>
-    <row r="43" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S43" t="s">
         <v>118</v>
       </c>
@@ -7268,7 +7291,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S44" t="s">
         <v>120</v>
       </c>
@@ -7319,7 +7342,7 @@
         <v>22970.550435184301</v>
       </c>
     </row>
-    <row r="45" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S45" t="s">
         <v>122</v>
       </c>
@@ -7370,7 +7393,7 @@
         <v>16296.609378967843</v>
       </c>
     </row>
-    <row r="46" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S46" t="s">
         <v>124</v>
       </c>
@@ -7421,7 +7444,7 @@
         <v>13358.298082883701</v>
       </c>
     </row>
-    <row r="47" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S47" t="s">
         <v>126</v>
       </c>
@@ -7472,7 +7495,7 @@
         <v>3222.3740892959781</v>
       </c>
     </row>
-    <row r="48" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:37" x14ac:dyDescent="0.3">
       <c r="S48" t="s">
         <v>128</v>
       </c>
@@ -7523,7 +7546,7 @@
         <v>1044.0712138463073</v>
       </c>
     </row>
-    <row r="49" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S49" t="s">
         <v>130</v>
       </c>
@@ -7574,7 +7597,7 @@
         <v>3384.6543353217503</v>
       </c>
     </row>
-    <row r="50" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S50" t="s">
         <v>132</v>
       </c>
@@ -7625,7 +7648,7 @@
         <v>19778.386530261319</v>
       </c>
     </row>
-    <row r="51" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S51" t="s">
         <v>134</v>
       </c>
@@ -7676,7 +7699,7 @@
         <v>5092.1634710325106</v>
       </c>
     </row>
-    <row r="52" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S52" t="s">
         <v>136</v>
       </c>
@@ -7727,7 +7750,7 @@
         <v>26945.878450492954</v>
       </c>
     </row>
-    <row r="53" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S53" t="s">
         <v>138</v>
       </c>
@@ -7778,7 +7801,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="54" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S54" t="s">
         <v>140</v>
       </c>
@@ -7829,7 +7852,7 @@
         <v>19607.431875924365</v>
       </c>
     </row>
-    <row r="55" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S55" t="s">
         <v>141</v>
       </c>
@@ -7880,7 +7903,7 @@
         <v>39464.53515625</v>
       </c>
     </row>
-    <row r="56" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S56" t="s">
         <v>143</v>
       </c>
@@ -7931,7 +7954,7 @@
         <v>38639.979520260065</v>
       </c>
     </row>
-    <row r="57" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S57" t="s">
         <v>144</v>
       </c>
@@ -7982,7 +8005,7 @@
         <v>55518.597100915576</v>
       </c>
     </row>
-    <row r="58" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S58" t="s">
         <v>146</v>
       </c>
@@ -8033,7 +8056,7 @@
         <v>4753.8878860133973</v>
       </c>
     </row>
-    <row r="59" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S59" t="s">
         <v>148</v>
       </c>
@@ -8084,7 +8107,7 @@
         <v>10255.760984412134</v>
       </c>
     </row>
-    <row r="60" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S60" t="s">
         <v>149</v>
       </c>
@@ -8135,7 +8158,7 @@
         <v>16768.426104425511</v>
       </c>
     </row>
-    <row r="61" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S61" t="s">
         <v>151</v>
       </c>
@@ -8186,7 +8209,7 @@
         <v>10356.974201715828</v>
       </c>
     </row>
-    <row r="62" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S62" t="s">
         <v>153</v>
       </c>
@@ -8237,7 +8260,7 @@
         <v>11989.599251464588</v>
       </c>
     </row>
-    <row r="63" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S63" t="s">
         <v>155</v>
       </c>
@@ -8288,7 +8311,7 @@
         <v>8295.6279919935532</v>
       </c>
     </row>
-    <row r="64" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S64" t="s">
         <v>157</v>
       </c>
@@ -8339,7 +8362,7 @@
         <v>15132.37997421416</v>
       </c>
     </row>
-    <row r="65" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S65" t="s">
         <v>159</v>
       </c>
@@ -8390,7 +8413,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S66" t="s">
         <v>160</v>
       </c>
@@ -8441,7 +8464,7 @@
         <v>35883.265325260989</v>
       </c>
     </row>
-    <row r="67" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S67" t="s">
         <v>161</v>
       </c>
@@ -8492,7 +8515,7 @@
         <v>8290.4094449110435</v>
       </c>
     </row>
-    <row r="68" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S68" t="s">
         <v>163</v>
       </c>
@@ -8543,7 +8566,7 @@
         <v>2253.2357883219242</v>
       </c>
     </row>
-    <row r="69" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S69" t="s">
         <v>164</v>
       </c>
@@ -8594,7 +8617,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S70" t="s">
         <v>166</v>
       </c>
@@ -8645,7 +8668,7 @@
         <v>10966.925129584664</v>
       </c>
     </row>
-    <row r="71" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S71" t="s">
         <v>167</v>
       </c>
@@ -8696,7 +8719,7 @@
         <v>47371.217569872817</v>
       </c>
     </row>
-    <row r="72" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S72" t="s">
         <v>169</v>
       </c>
@@ -8747,7 +8770,7 @@
         <v>42233.1396001127</v>
       </c>
     </row>
-    <row r="73" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S73" t="s">
         <v>171</v>
       </c>
@@ -8798,7 +8821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S74" t="s">
         <v>173</v>
       </c>
@@ -8849,7 +8872,7 @@
         <v>13903.288954665359</v>
       </c>
     </row>
-    <row r="75" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S75" t="s">
         <v>175</v>
       </c>
@@ -8900,7 +8923,7 @@
         <v>2042.620289351634</v>
       </c>
     </row>
-    <row r="76" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S76" t="s">
         <v>177</v>
       </c>
@@ -8951,7 +8974,7 @@
         <v>13966.326335016558</v>
       </c>
     </row>
-    <row r="77" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S77" t="s">
         <v>179</v>
       </c>
@@ -9002,7 +9025,7 @@
         <v>51840.329691935811</v>
       </c>
     </row>
-    <row r="78" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S78" t="s">
         <v>181</v>
       </c>
@@ -9053,7 +9076,7 @@
         <v>5263.5266040155329</v>
       </c>
     </row>
-    <row r="79" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S79" t="s">
         <v>183</v>
       </c>
@@ -9104,7 +9127,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="80" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S80" t="s">
         <v>185</v>
       </c>
@@ -9155,7 +9178,7 @@
         <v>27103.540907337152</v>
       </c>
     </row>
-    <row r="81" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S81" t="s">
         <v>186</v>
       </c>
@@ -9206,7 +9229,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S82" t="s">
         <v>188</v>
       </c>
@@ -9257,7 +9280,7 @@
         <v>13175.521742100791</v>
       </c>
     </row>
-    <row r="83" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S83" t="s">
         <v>190</v>
       </c>
@@ -9308,7 +9331,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S84" t="s">
         <v>192</v>
       </c>
@@ -9359,7 +9382,7 @@
         <v>8389.1067360440393</v>
       </c>
     </row>
-    <row r="85" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S85" t="s">
         <v>194</v>
       </c>
@@ -9410,7 +9433,7 @@
         <v>2604.1172340730163</v>
       </c>
     </row>
-    <row r="86" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S86" t="s">
         <v>196</v>
       </c>
@@ -9461,7 +9484,7 @@
         <v>1803.6305907650958</v>
       </c>
     </row>
-    <row r="87" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S87" t="s">
         <v>197</v>
       </c>
@@ -9512,7 +9535,7 @@
         <v>18430.569745428911</v>
       </c>
     </row>
-    <row r="88" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S88" t="s">
         <v>199</v>
       </c>
@@ -9563,7 +9586,7 @@
         <v>2970.4628453088812</v>
       </c>
     </row>
-    <row r="89" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S89" t="s">
         <v>200</v>
       </c>
@@ -9614,7 +9637,7 @@
         <v>5028.1451089198927</v>
       </c>
     </row>
-    <row r="90" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S90" t="s">
         <v>202</v>
       </c>
@@ -9665,7 +9688,7 @@
         <v>55892.110974709358</v>
       </c>
     </row>
-    <row r="91" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S91" t="s">
         <v>204</v>
       </c>
@@ -9716,7 +9739,7 @@
         <v>31232.101080990775</v>
       </c>
     </row>
-    <row r="92" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S92" t="s">
         <v>205</v>
       </c>
@@ -9767,7 +9790,7 @@
         <v>51641.392081009624</v>
       </c>
     </row>
-    <row r="93" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S93" t="s">
         <v>207</v>
       </c>
@@ -9818,7 +9841,7 @@
         <v>6172.0423863914439</v>
       </c>
     </row>
-    <row r="94" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S94" t="s">
         <v>209</v>
       </c>
@@ -9869,7 +9892,7 @@
         <v>11515.680743615412</v>
       </c>
     </row>
-    <row r="95" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S95" t="s">
         <v>211</v>
       </c>
@@ -9920,7 +9943,7 @@
         <v>14432.362714039966</v>
       </c>
     </row>
-    <row r="96" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S96" t="s">
         <v>213</v>
       </c>
@@ -9971,7 +9994,7 @@
         <v>8848.1184567801283</v>
       </c>
     </row>
-    <row r="97" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S97" t="s">
         <v>214</v>
       </c>
@@ -10022,7 +10045,7 @@
         <v>91356.855053801977</v>
       </c>
     </row>
-    <row r="98" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S98" t="s">
         <v>216</v>
       </c>
@@ -10073,7 +10096,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S99" t="s">
         <v>218</v>
       </c>
@@ -10124,7 +10147,7 @@
         <v>39680.66587035705</v>
       </c>
     </row>
-    <row r="100" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S100" t="s">
         <v>220</v>
       </c>
@@ -10175,7 +10198,7 @@
         <v>39091.406055017738</v>
       </c>
     </row>
-    <row r="101" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S101" t="s">
         <v>222</v>
       </c>
@@ -10226,7 +10249,7 @@
         <v>9208.368569666196</v>
       </c>
     </row>
-    <row r="102" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S102" t="s">
         <v>224</v>
       </c>
@@ -10277,7 +10300,7 @@
         <v>39989.578606681753</v>
       </c>
     </row>
-    <row r="103" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S103" t="s">
         <v>226</v>
       </c>
@@ -10328,7 +10351,7 @@
         <v>9184.0035456647583</v>
       </c>
     </row>
-    <row r="104" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S104" t="s">
         <v>228</v>
       </c>
@@ -10379,7 +10402,7 @@
         <v>25361.507991001541</v>
       </c>
     </row>
-    <row r="105" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S105" t="s">
         <v>230</v>
       </c>
@@ -10430,7 +10453,7 @@
         <v>4497.3629750232867</v>
       </c>
     </row>
-    <row r="106" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S106" t="s">
         <v>232</v>
       </c>
@@ -10481,7 +10504,7 @@
         <v>1897.0619217901406</v>
       </c>
     </row>
-    <row r="107" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S107" t="s">
         <v>234</v>
       </c>
@@ -10532,7 +10555,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S108" t="s">
         <v>236</v>
       </c>
@@ -10583,7 +10606,7 @@
         <v>42396.761944199534</v>
       </c>
     </row>
-    <row r="109" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S109" t="s">
         <v>238</v>
       </c>
@@ -10634,7 +10657,7 @@
         <v>10706.513975629761</v>
       </c>
     </row>
-    <row r="110" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S110" t="s">
         <v>240</v>
       </c>
@@ -10685,7 +10708,7 @@
         <v>43922.630209562616</v>
       </c>
     </row>
-    <row r="111" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S111" t="s">
         <v>242</v>
       </c>
@@ -10736,7 +10759,7 @@
         <v>4726.1965588636149</v>
       </c>
     </row>
-    <row r="112" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S112" t="s">
         <v>244</v>
       </c>
@@ -10787,7 +10810,7 @@
         <v>7763.9488813409635</v>
       </c>
     </row>
-    <row r="113" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S113" t="s">
         <v>246</v>
       </c>
@@ -10838,7 +10861,7 @@
         <v>30568.501815632218</v>
       </c>
     </row>
-    <row r="114" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S114" t="s">
         <v>248</v>
       </c>
@@ -10889,7 +10912,7 @@
         <v>13791.270299543639</v>
       </c>
     </row>
-    <row r="115" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S115" t="s">
         <v>250</v>
       </c>
@@ -10940,7 +10963,7 @@
         <v>2285.0827190355162</v>
       </c>
     </row>
-    <row r="116" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S116" t="s">
         <v>252</v>
       </c>
@@ -10991,7 +11014,7 @@
         <v>1383.8280991000138</v>
       </c>
     </row>
-    <row r="117" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S117" t="s">
         <v>253</v>
       </c>
@@ -11042,7 +11065,7 @@
         <v>15621.000033071854</v>
       </c>
     </row>
-    <row r="118" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S118" t="s">
         <v>254</v>
       </c>
@@ -11093,7 +11116,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S119" t="s">
         <v>255</v>
       </c>
@@ -11144,7 +11167,7 @@
         <v>37166.296056782652</v>
       </c>
     </row>
-    <row r="120" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S120" t="s">
         <v>257</v>
       </c>
@@ -11189,7 +11212,7 @@
         <v>111751.3147513618</v>
       </c>
     </row>
-    <row r="121" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S121" t="s">
         <v>259</v>
       </c>
@@ -11240,7 +11263,7 @@
         <v>55158.712729193634</v>
       </c>
     </row>
-    <row r="122" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S122" t="s">
         <v>261</v>
       </c>
@@ -11291,7 +11314,7 @@
         <v>1436.20695047955</v>
       </c>
     </row>
-    <row r="123" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S123" t="s">
         <v>263</v>
       </c>
@@ -11342,7 +11365,7 @@
         <v>1489.6013808411024</v>
       </c>
     </row>
-    <row r="124" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S124" t="s">
         <v>265</v>
       </c>
@@ -11393,7 +11416,7 @@
         <v>25830.973590392216</v>
       </c>
     </row>
-    <row r="125" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S125" t="s">
         <v>267</v>
       </c>
@@ -11444,7 +11467,7 @@
         <v>13419.3345511644</v>
       </c>
     </row>
-    <row r="126" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S126" t="s">
         <v>269</v>
       </c>
@@ -11495,7 +11518,7 @@
         <v>2123.8282021637692</v>
       </c>
     </row>
-    <row r="127" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S127" t="s">
         <v>271</v>
       </c>
@@ -11546,7 +11569,7 @@
         <v>41012.968499547322</v>
       </c>
     </row>
-    <row r="128" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S128" t="s">
         <v>273</v>
       </c>
@@ -11597,7 +11620,7 @@
         <v>5711.0719263698784</v>
       </c>
     </row>
-    <row r="129" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S129" t="s">
         <v>274</v>
       </c>
@@ -11648,7 +11671,7 @@
         <v>5314.8493701716734</v>
       </c>
     </row>
-    <row r="130" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S130" t="s">
         <v>276</v>
       </c>
@@ -11699,7 +11722,7 @@
         <v>20219.810081180611</v>
       </c>
     </row>
-    <row r="131" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S131" t="s">
         <v>278</v>
       </c>
@@ -11750,7 +11773,7 @@
         <v>18327.990763239639</v>
       </c>
     </row>
-    <row r="132" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S132" t="s">
         <v>280</v>
       </c>
@@ -11801,7 +11824,7 @@
         <v>3455.7764338706115</v>
       </c>
     </row>
-    <row r="133" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S133" t="s">
         <v>282</v>
       </c>
@@ -11852,7 +11875,7 @@
         <v>11848.89952657619</v>
       </c>
     </row>
-    <row r="134" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S134" t="s">
         <v>284</v>
       </c>
@@ -11903,7 +11926,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S135" t="s">
         <v>286</v>
       </c>
@@ -11954,7 +11977,7 @@
         <v>11666.779701198984</v>
       </c>
     </row>
-    <row r="136" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S136" t="s">
         <v>288</v>
       </c>
@@ -12005,7 +12028,7 @@
         <v>18258.976366749986</v>
       </c>
     </row>
-    <row r="137" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S137" t="s">
         <v>290</v>
       </c>
@@ -12056,7 +12079,7 @@
         <v>7545.9951171875</v>
       </c>
     </row>
-    <row r="138" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S138" t="s">
         <v>292</v>
       </c>
@@ -12107,7 +12130,7 @@
         <v>1233.4249959559188</v>
       </c>
     </row>
-    <row r="139" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S139" t="s">
         <v>294</v>
       </c>
@@ -12158,7 +12181,7 @@
         <v>4947.0939613933933</v>
       </c>
     </row>
-    <row r="140" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S140" t="s">
         <v>296</v>
       </c>
@@ -12209,7 +12232,7 @@
         <v>9041.7698604857887</v>
       </c>
     </row>
-    <row r="141" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S141" t="s">
         <v>298</v>
       </c>
@@ -12260,7 +12283,7 @@
         <v>10812.889284414861</v>
       </c>
     </row>
-    <row r="142" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S142" t="s">
         <v>299</v>
       </c>
@@ -12311,7 +12334,7 @@
         <v>3761.8027875187113</v>
       </c>
     </row>
-    <row r="143" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S143" t="s">
         <v>301</v>
       </c>
@@ -12362,7 +12385,7 @@
         <v>54275.003046567697</v>
       </c>
     </row>
-    <row r="144" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S144" t="s">
         <v>303</v>
       </c>
@@ -12410,7 +12433,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="145" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S145" t="s">
         <v>305</v>
       </c>
@@ -12461,7 +12484,7 @@
         <v>42052.140967772641</v>
       </c>
     </row>
-    <row r="146" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S146" t="s">
         <v>307</v>
       </c>
@@ -12512,7 +12535,7 @@
         <v>5230.5614228735212</v>
       </c>
     </row>
-    <row r="147" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S147" t="s">
         <v>309</v>
       </c>
@@ -12563,7 +12586,7 @@
         <v>1214.5465562107745</v>
       </c>
     </row>
-    <row r="148" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S148" t="s">
         <v>311</v>
       </c>
@@ -12614,7 +12637,7 @@
         <v>4865.0868321690768</v>
       </c>
     </row>
-    <row r="149" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="149" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S149" t="s">
         <v>313</v>
       </c>
@@ -12665,7 +12688,7 @@
         <v>15779.730193018311</v>
       </c>
     </row>
-    <row r="150" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S150" t="s">
         <v>315</v>
       </c>
@@ -12716,7 +12739,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S151" t="s">
         <v>317</v>
       </c>
@@ -12767,7 +12790,7 @@
         <v>63776.160965344156</v>
       </c>
     </row>
-    <row r="152" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S152" t="s">
         <v>319</v>
       </c>
@@ -12818,7 +12841,7 @@
         <v>33098.209899809735</v>
       </c>
     </row>
-    <row r="153" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S153" t="s">
         <v>321</v>
       </c>
@@ -12869,7 +12892,7 @@
         <v>5004.3522419186647</v>
       </c>
     </row>
-    <row r="154" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S154" t="s">
         <v>322</v>
       </c>
@@ -12917,7 +12940,7 @@
         <v>15952.527357472454</v>
       </c>
     </row>
-    <row r="155" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S155" t="s">
         <v>324</v>
       </c>
@@ -12968,7 +12991,7 @@
         <v>26606.294977685287</v>
       </c>
     </row>
-    <row r="156" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S156" t="s">
         <v>325</v>
       </c>
@@ -13019,7 +13042,7 @@
         <v>3741.6615779009639</v>
       </c>
     </row>
-    <row r="157" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S157" t="s">
         <v>327</v>
       </c>
@@ -13070,7 +13093,7 @@
         <v>13317.321118433343</v>
       </c>
     </row>
-    <row r="158" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S158" t="s">
         <v>329</v>
       </c>
@@ -13121,7 +13144,7 @@
         <v>11187.343789603729</v>
       </c>
     </row>
-    <row r="159" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S159" t="s">
         <v>331</v>
       </c>
@@ -13172,7 +13195,7 @@
         <v>7773.2602307440684</v>
       </c>
     </row>
-    <row r="160" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S160" t="s">
         <v>332</v>
       </c>
@@ -13223,7 +13246,7 @@
         <v>32546.825941931886</v>
       </c>
     </row>
-    <row r="161" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S161" t="s">
         <v>334</v>
       </c>
@@ -13274,7 +13297,7 @@
         <v>32011.325158682892</v>
       </c>
     </row>
-    <row r="162" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="162" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S162" t="s">
         <v>336</v>
       </c>
@@ -13325,7 +13348,7 @@
         <v>32437.965147913441</v>
       </c>
     </row>
-    <row r="163" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="163" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S163" t="s">
         <v>338</v>
       </c>
@@ -13376,7 +13399,7 @@
         <v>89019.069857330993</v>
       </c>
     </row>
-    <row r="164" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="164" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S164" t="s">
         <v>340</v>
       </c>
@@ -13427,7 +13450,7 @@
         <v>29057.284603928569</v>
       </c>
     </row>
-    <row r="165" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="165" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S165" t="s">
         <v>342</v>
       </c>
@@ -13478,7 +13501,7 @@
         <v>26586.5546875</v>
       </c>
     </row>
-    <row r="166" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="166" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S166" t="s">
         <v>344</v>
       </c>
@@ -13529,7 +13552,7 @@
         <v>2066.6286592528595</v>
       </c>
     </row>
-    <row r="167" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="167" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S167" t="s">
         <v>346</v>
       </c>
@@ -13580,7 +13603,7 @@
         <v>6062.4717354530358</v>
       </c>
     </row>
-    <row r="168" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="168" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S168" t="s">
         <v>348</v>
       </c>
@@ -13631,7 +13654,7 @@
         <v>56364.214163191209</v>
       </c>
     </row>
-    <row r="169" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="169" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S169" t="s">
         <v>350</v>
       </c>
@@ -13682,7 +13705,7 @@
         <v>4058.6740025447784</v>
       </c>
     </row>
-    <row r="170" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="170" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S170" t="s">
         <v>352</v>
       </c>
@@ -13727,7 +13750,7 @@
         <v>44770.908279760886</v>
       </c>
     </row>
-    <row r="171" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="171" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S171" t="s">
         <v>354</v>
       </c>
@@ -13778,7 +13801,7 @@
         <v>3384.4417824662637</v>
       </c>
     </row>
-    <row r="172" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="172" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S172" t="s">
         <v>356</v>
       </c>
@@ -13829,7 +13852,7 @@
         <v>18262.706401510804</v>
       </c>
     </row>
-    <row r="173" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="173" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S173" t="s">
         <v>358</v>
       </c>
@@ -13880,7 +13903,7 @@
         <v>26439.120237955423</v>
       </c>
     </row>
-    <row r="174" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="174" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S174" t="s">
         <v>360</v>
       </c>
@@ -13931,7 +13954,7 @@
         <v>1586.3549429916561</v>
       </c>
     </row>
-    <row r="175" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="175" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S175" t="s">
         <v>362</v>
       </c>
@@ -13982,7 +14005,7 @@
         <v>94910.10143137259</v>
       </c>
     </row>
-    <row r="176" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="176" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S176" t="s">
         <v>363</v>
       </c>
@@ -14033,7 +14056,7 @@
         <v>30850.916579702127</v>
       </c>
     </row>
-    <row r="177" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="177" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S177" t="s">
         <v>364</v>
       </c>
@@ -14084,7 +14107,7 @@
         <v>30960.257299971192</v>
       </c>
     </row>
-    <row r="178" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="178" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S178" t="s">
         <v>365</v>
       </c>
@@ -14135,7 +14158,7 @@
         <v>37098.119340396966</v>
       </c>
     </row>
-    <row r="179" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="179" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S179" t="s">
         <v>367</v>
       </c>
@@ -14186,7 +14209,7 @@
         <v>2469.1742149284719</v>
       </c>
     </row>
-    <row r="180" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="180" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S180" t="s">
         <v>369</v>
       </c>
@@ -14237,7 +14260,7 @@
         <v>1127.4185339946789</v>
       </c>
     </row>
-    <row r="181" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="181" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S181" t="s">
         <v>371</v>
       </c>
@@ -14288,7 +14311,7 @@
         <v>12815.909590529323</v>
       </c>
     </row>
-    <row r="182" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="182" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S182" t="s">
         <v>373</v>
       </c>
@@ -14339,7 +14362,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="183" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="183" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S183" t="s">
         <v>375</v>
       </c>
@@ -14390,7 +14413,7 @@
         <v>35987.239644842164</v>
       </c>
     </row>
-    <row r="184" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="184" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S184" t="s">
         <v>377</v>
       </c>
@@ -14441,7 +14464,7 @@
         <v>12939.440565654826</v>
       </c>
     </row>
-    <row r="185" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="185" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S185" t="s">
         <v>379</v>
       </c>
@@ -14492,7 +14515,7 @@
         <v>26701.115459001474</v>
       </c>
     </row>
-    <row r="186" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="186" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S186" t="s">
         <v>381</v>
       </c>
@@ -14543,7 +14566,7 @@
         <v>11650.930319256229</v>
       </c>
     </row>
-    <row r="187" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="187" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S187" t="s">
         <v>383</v>
       </c>
@@ -14594,7 +14617,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="188" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="188" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S188" t="s">
         <v>385</v>
       </c>
@@ -14645,7 +14668,7 @@
         <v>13690.973397358373</v>
       </c>
     </row>
-    <row r="189" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="189" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S189" t="s">
         <v>387</v>
       </c>
@@ -14696,7 +14719,7 @@
         <v>3874.80029296875</v>
       </c>
     </row>
-    <row r="190" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="190" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S190" t="s">
         <v>389</v>
       </c>
@@ -14747,7 +14770,7 @@
         <v>15329.179105804476</v>
       </c>
     </row>
-    <row r="191" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="191" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S191" t="s">
         <v>391</v>
       </c>
@@ -14798,7 +14821,7 @@
         <v>51331.2822226344</v>
       </c>
     </row>
-    <row r="192" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="192" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S192" t="s">
         <v>393</v>
       </c>
@@ -14849,7 +14872,7 @@
         <v>67765.881429025932</v>
       </c>
     </row>
-    <row r="193" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="193" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S193" t="s">
         <v>395</v>
       </c>
@@ -14900,7 +14923,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="194" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="194" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S194" t="s">
         <v>397</v>
       </c>
@@ -14951,7 +14974,7 @@
         <v>3651.9426602834665</v>
       </c>
     </row>
-    <row r="195" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="195" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S195" t="s">
         <v>399</v>
       </c>
@@ -15002,7 +15025,7 @@
         <v>2551.5068359375</v>
       </c>
     </row>
-    <row r="196" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="196" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S196" t="s">
         <v>401</v>
       </c>
@@ -15053,7 +15076,7 @@
         <v>16865.548770916295</v>
       </c>
     </row>
-    <row r="197" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="197" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S197" t="s">
         <v>403</v>
       </c>
@@ -15104,7 +15127,7 @@
         <v>4856.5182914253855</v>
       </c>
     </row>
-    <row r="198" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="198" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S198" t="s">
         <v>405</v>
       </c>
@@ -15155,7 +15178,7 @@
         <v>2064.1366073939803</v>
       </c>
     </row>
-    <row r="199" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="199" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S199" t="s">
         <v>407</v>
       </c>
@@ -15206,7 +15229,7 @@
         <v>6357.0699144526607</v>
       </c>
     </row>
-    <row r="200" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="200" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S200" t="s">
         <v>409</v>
       </c>
@@ -15257,7 +15280,7 @@
         <v>23391.316198833167</v>
       </c>
     </row>
-    <row r="201" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="201" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S201" t="s">
         <v>411</v>
       </c>
@@ -15308,7 +15331,7 @@
         <v>10040.135993665323</v>
       </c>
     </row>
-    <row r="202" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="202" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S202" t="s">
         <v>413</v>
       </c>
@@ -15359,7 +15382,7 @@
         <v>28473.205858382837</v>
       </c>
     </row>
-    <row r="203" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="203" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S203" t="s">
         <v>415</v>
       </c>
@@ -15410,7 +15433,7 @@
         <v>14269.641029788265</v>
       </c>
     </row>
-    <row r="204" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="204" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S204" t="s">
         <v>417</v>
       </c>
@@ -15461,7 +15484,7 @@
         <v>18474.865994876869</v>
       </c>
     </row>
-    <row r="205" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="205" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S205" t="s">
         <v>419</v>
       </c>
@@ -15512,7 +15535,7 @@
         <v>4577.9681550971181</v>
       </c>
     </row>
-    <row r="206" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="206" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S206" t="s">
         <v>421</v>
       </c>
@@ -15563,7 +15586,7 @@
         <v>2240.4902372908259</v>
       </c>
     </row>
-    <row r="207" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="207" spans="19:37" x14ac:dyDescent="0.3">
       <c r="AH207" s="12"/>
       <c r="AI207" t="s">
         <v>398</v>
@@ -15575,7 +15598,7 @@
         <v>12407.7900390625</v>
       </c>
     </row>
-    <row r="208" spans="19:37" x14ac:dyDescent="0.25">
+    <row r="208" spans="19:37" x14ac:dyDescent="0.3">
       <c r="AH208" s="12"/>
       <c r="AI208" t="s">
         <v>68</v>
@@ -15587,7 +15610,7 @@
         <v>67668.286641326529</v>
       </c>
     </row>
-    <row r="209" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="209" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH209" s="12"/>
       <c r="AI209" t="s">
         <v>172</v>
@@ -15599,7 +15622,7 @@
         <v>41741.0214460528</v>
       </c>
     </row>
-    <row r="210" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="210" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH210" s="12"/>
       <c r="AI210" t="s">
         <v>402</v>
@@ -15611,7 +15634,7 @@
         <v>60158.910452830198</v>
       </c>
     </row>
-    <row r="211" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="211" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH211" s="12"/>
       <c r="AI211" t="s">
         <v>400</v>
@@ -15623,7 +15646,7 @@
         <v>22073.374872663455</v>
       </c>
     </row>
-    <row r="212" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="212" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH212" s="12"/>
       <c r="AI212" t="s">
         <v>404</v>
@@ -15635,7 +15658,7 @@
         <v>7407.7276400851442</v>
       </c>
     </row>
-    <row r="213" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="213" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH213" s="12"/>
       <c r="AI213" t="s">
         <v>412</v>
@@ -15647,7 +15670,7 @@
         <v>2848.9702397598171</v>
       </c>
     </row>
-    <row r="214" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="214" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH214" s="12"/>
       <c r="AI214" t="s">
         <v>517</v>
@@ -15659,7 +15682,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="215" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="215" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH215" s="12"/>
       <c r="AI215" t="s">
         <v>518</v>
@@ -15671,7 +15694,7 @@
         <v>10450.622381569274</v>
       </c>
     </row>
-    <row r="216" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="216" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH216" s="12"/>
       <c r="AI216" t="s">
         <v>519</v>
@@ -15683,7 +15706,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="217" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="217" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH217" s="12"/>
       <c r="AI217" t="s">
         <v>521</v>
@@ -15695,7 +15718,7 @@
         <v>5402.5387727565021</v>
       </c>
     </row>
-    <row r="218" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="218" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH218" s="12"/>
       <c r="AI218" t="s">
         <v>522</v>
@@ -15707,7 +15730,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="219" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="219" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH219" s="12"/>
       <c r="AI219" t="s">
         <v>420</v>
@@ -15719,7 +15742,7 @@
         <v>3183.6507732625855</v>
       </c>
     </row>
-    <row r="220" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="220" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH220" s="12"/>
       <c r="AI220" t="s">
         <v>422</v>
@@ -15731,28 +15754,28 @@
         <v>1990.3194191982541</v>
       </c>
     </row>
-    <row r="221" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="221" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH221" s="12"/>
     </row>
-    <row r="222" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="222" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH222" s="12"/>
     </row>
-    <row r="223" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="223" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH223" s="12"/>
     </row>
-    <row r="224" spans="34:37" x14ac:dyDescent="0.25">
+    <row r="224" spans="34:37" x14ac:dyDescent="0.3">
       <c r="AH224" s="12"/>
     </row>
-    <row r="225" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="34:34" x14ac:dyDescent="0.3">
       <c r="AH225" s="12"/>
     </row>
-    <row r="226" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="34:34" x14ac:dyDescent="0.3">
       <c r="AH226" s="12"/>
     </row>
-    <row r="227" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="34:34" x14ac:dyDescent="0.3">
       <c r="AH227" s="12"/>
     </row>
-    <row r="228" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="34:34" x14ac:dyDescent="0.3">
       <c r="AH228" s="12"/>
     </row>
   </sheetData>
